--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\BSoAIGtAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/indst/bsoaigtap/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED7CA1-63D8-C947-B741-88A426671C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BSoAIGtAP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -202,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +285,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -297,6 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -578,22 +589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.73046875" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,137 +615,137 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.86328125" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.265625" customWidth="1"/>
-    <col min="5" max="5" width="21.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -739,7 +753,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -751,7 +765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -763,7 +777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -775,37 +789,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>29</v>
@@ -823,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -845,7 +859,7 @@
         <v>41512.799999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -867,7 +881,7 @@
         <v>527.88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -889,7 +903,7 @@
         <v>706.26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -908,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -930,7 +944,7 @@
         <v>5088.16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -954,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -979,7 +993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>1698.48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1037,7 @@
         <v>2768.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>1454.36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>967.19999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1088,32 +1102,32 @@
         <v>51587</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <f>SUMPRODUCT(D15:D26,F15:F26)/SUM(F15:F26)</f>
         <v>0.24377594409350131</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <f>(B5/B3)+A29*(B4/B3)</f>
         <v>0.6232789702925996</v>
@@ -1125,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1135,13 +1149,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1245,7 +1259,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>

--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/indst/bsoaigtap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/bsoaigtap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED7CA1-63D8-C947-B741-88A426671C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132317CD-F11D-CF4D-8CAE-B0A4BDD290C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/bsoaigtap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\BSoAIGtAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132317CD-F11D-CF4D-8CAE-B0A4BDD290C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BSoAIGtAP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -212,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +275,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -307,7 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -589,25 +578,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="15">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,137 +601,137 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.265625" customWidth="1"/>
+    <col min="5" max="5" width="21.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -753,7 +739,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -765,7 +751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -777,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -789,37 +775,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>29</v>
@@ -837,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -859,7 +845,7 @@
         <v>41512.799999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -881,7 +867,7 @@
         <v>527.88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -903,7 +889,7 @@
         <v>706.26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -922,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -944,7 +930,7 @@
         <v>5088.16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -968,7 +954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -993,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1001,7 @@
         <v>1698.48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1023,7 @@
         <v>2768.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1045,7 @@
         <v>1454.36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1067,7 @@
         <v>967.19999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1102,32 +1088,32 @@
         <v>51587</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="13">
         <f>SUMPRODUCT(D15:D26,F15:F26)/SUM(F15:F26)</f>
         <v>0.24377594409350131</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D30" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <f>(B5/B3)+A29*(B4/B3)</f>
         <v>0.6232789702925996</v>
@@ -1139,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1149,13 +1135,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1259,7 +1245,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>55</v>
       </c>
